--- a/Tests/Validation/Wheat/data/FAR SAC W19-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W19-02.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR SAC W19-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W19-02.xlsx
@@ -548,12 +548,12 @@
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
     </row>

--- a/Tests/Validation/Wheat/data/FAR SAC W19-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W19-02.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -561,7 +562,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -596,7 +597,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -631,7 +632,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -666,7 +667,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -701,7 +702,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -736,7 +737,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -771,7 +772,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -806,7 +807,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -841,7 +842,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -876,7 +877,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -915,7 +916,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -974,7 +975,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1009,7 +1010,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1044,7 +1045,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1079,7 +1080,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1114,7 +1115,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1149,7 +1150,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1184,7 +1185,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1219,7 +1220,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1254,7 +1255,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1289,7 +1290,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1328,7 +1329,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1387,7 +1388,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1422,7 +1423,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1457,7 +1458,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1492,7 +1493,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1527,7 +1528,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1562,7 +1563,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1597,7 +1598,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1632,7 +1633,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1667,7 +1668,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1702,7 +1703,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1761,7 +1762,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1796,7 +1797,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1831,7 +1832,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1866,7 +1867,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1901,7 +1902,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1936,7 +1937,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1971,7 +1972,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2006,7 +2007,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2041,7 +2042,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2076,7 +2077,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2115,7 +2116,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2174,7 +2175,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2209,7 +2210,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2244,7 +2245,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2279,7 +2280,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2314,7 +2315,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2349,7 +2350,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2384,7 +2385,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2419,7 +2420,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2454,7 +2455,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2489,7 +2490,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2528,7 +2529,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2587,7 +2588,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2622,7 +2623,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2657,7 +2658,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2692,7 +2693,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2727,7 +2728,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2762,7 +2763,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2797,7 +2798,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2832,7 +2833,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2867,7 +2868,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2902,7 +2903,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2941,7 +2942,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -3000,7 +3001,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3035,7 +3036,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3070,7 +3071,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3105,7 +3106,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3140,7 +3141,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3175,7 +3176,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3210,7 +3211,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3245,7 +3246,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3280,7 +3281,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3315,7 +3316,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -3374,7 +3375,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3409,7 +3410,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3444,7 +3445,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3479,7 +3480,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3514,7 +3515,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3549,7 +3550,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3584,7 +3585,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3619,7 +3620,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3654,7 +3655,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3689,7 +3690,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3728,7 +3729,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -3787,7 +3788,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3822,7 +3823,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3857,7 +3858,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3892,7 +3893,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3927,7 +3928,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3962,7 +3963,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3997,7 +3998,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4032,7 +4033,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4067,7 +4068,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4102,7 +4103,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4161,7 +4162,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4196,7 +4197,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4231,7 +4232,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4266,7 +4267,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4301,7 +4302,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4336,7 +4337,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4371,7 +4372,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4406,7 +4407,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4441,7 +4442,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4476,7 +4477,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -4535,7 +4536,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4570,7 +4571,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4605,7 +4606,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4640,7 +4641,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4675,7 +4676,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4710,7 +4711,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4745,7 +4746,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4780,7 +4781,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4815,7 +4816,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4850,7 +4851,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -4889,7 +4890,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -4948,7 +4949,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4983,7 +4984,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5018,7 +5019,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5053,7 +5054,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5088,7 +5089,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5123,7 +5124,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5158,7 +5159,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5193,7 +5194,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5228,7 +5229,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5263,7 +5264,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -5302,7 +5303,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -5361,7 +5362,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5396,7 +5397,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5431,7 +5432,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5466,7 +5467,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5501,7 +5502,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5536,7 +5537,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5571,7 +5572,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5606,7 +5607,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5641,7 +5642,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5676,7 +5677,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -5715,7 +5716,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C140" t="inlineStr">
@@ -5774,7 +5775,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5809,7 +5810,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5844,7 +5845,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5879,7 +5880,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5914,7 +5915,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5949,7 +5950,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5984,7 +5985,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6019,7 +6020,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6054,7 +6055,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6089,7 +6090,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -6148,7 +6149,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6183,7 +6184,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6218,7 +6219,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6253,7 +6254,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6288,7 +6289,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6323,7 +6324,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6358,7 +6359,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6393,7 +6394,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6428,7 +6429,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6463,7 +6464,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -6522,7 +6523,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6557,7 +6558,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6592,7 +6593,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6627,7 +6628,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6662,7 +6663,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6697,7 +6698,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6732,7 +6733,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6767,7 +6768,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6802,7 +6803,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6837,7 +6838,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -6876,7 +6877,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C171" t="inlineStr">
@@ -6935,7 +6936,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6970,7 +6971,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7005,7 +7006,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7040,7 +7041,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7075,7 +7076,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7110,7 +7111,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7145,7 +7146,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7180,7 +7181,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7215,7 +7216,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7250,7 +7251,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -7289,7 +7290,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -7348,7 +7349,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7383,7 +7384,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7418,7 +7419,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7453,7 +7454,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7488,7 +7489,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7523,7 +7524,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7558,7 +7559,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7593,7 +7594,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7628,7 +7629,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7663,7 +7664,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -7722,7 +7723,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7757,7 +7758,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7792,7 +7793,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7827,7 +7828,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7862,7 +7863,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7897,7 +7898,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7932,7 +7933,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7967,7 +7968,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8002,7 +8003,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8037,7 +8038,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C202" t="inlineStr">
@@ -8076,7 +8077,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -8135,7 +8136,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8170,7 +8171,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8205,7 +8206,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8240,7 +8241,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8275,7 +8276,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8310,7 +8311,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8345,7 +8346,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8380,7 +8381,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8415,7 +8416,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8450,7 +8451,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C213" t="inlineStr">
@@ -8489,7 +8490,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -8548,7 +8549,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8583,7 +8584,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8618,7 +8619,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8653,7 +8654,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8688,7 +8689,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8723,7 +8724,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8758,7 +8759,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8793,7 +8794,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8828,7 +8829,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8863,7 +8864,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -8902,7 +8903,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C225" t="inlineStr">
@@ -8961,7 +8962,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8996,7 +8997,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9031,7 +9032,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9066,7 +9067,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9101,7 +9102,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9136,7 +9137,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9171,7 +9172,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9206,7 +9207,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9241,7 +9242,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9276,7 +9277,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -9335,7 +9336,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9370,7 +9371,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9405,7 +9406,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9440,7 +9441,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9475,7 +9476,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9510,7 +9511,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9545,7 +9546,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9580,7 +9581,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9615,7 +9616,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9650,7 +9651,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C245" t="inlineStr">
@@ -9689,7 +9690,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C246" t="inlineStr">
@@ -9748,7 +9749,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9783,7 +9784,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9818,7 +9819,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9853,7 +9854,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9888,7 +9889,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9923,7 +9924,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9958,7 +9959,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -9993,7 +9994,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10028,7 +10029,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10063,7 +10064,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C256" t="inlineStr">
@@ -10122,7 +10123,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10157,7 +10158,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10192,7 +10193,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10227,7 +10228,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10262,7 +10263,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10297,7 +10298,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10332,7 +10333,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10367,7 +10368,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10402,7 +10403,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10437,7 +10438,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C266" t="inlineStr">
@@ -10496,7 +10497,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10531,7 +10532,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10566,7 +10567,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10601,7 +10602,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10636,7 +10637,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10671,7 +10672,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10706,7 +10707,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10741,7 +10742,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10776,7 +10777,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10811,7 +10812,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C276" t="inlineStr">
@@ -10850,7 +10851,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C277" t="inlineStr">
@@ -10909,7 +10910,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10944,7 +10945,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10979,7 +10980,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11014,7 +11015,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11049,7 +11050,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11084,7 +11085,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11119,7 +11120,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11154,7 +11155,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11189,7 +11190,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11224,7 +11225,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C287" t="inlineStr">
@@ -11263,7 +11264,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C288" t="inlineStr">
@@ -11322,7 +11323,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -11357,7 +11358,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11392,7 +11393,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11427,7 +11428,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11462,7 +11463,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11497,7 +11498,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11532,7 +11533,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11567,7 +11568,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11602,7 +11603,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11637,7 +11638,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C298" t="inlineStr">
@@ -11676,7 +11677,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C299" t="inlineStr">
@@ -11735,7 +11736,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11770,7 +11771,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11805,7 +11806,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11840,7 +11841,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11875,7 +11876,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11910,7 +11911,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -11945,7 +11946,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -11980,7 +11981,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -12015,7 +12016,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B308" s="3" t="n">
+      <c r="B308" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12050,7 +12051,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B309" s="3" t="n">
+      <c r="B309" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C309" t="inlineStr">
@@ -12109,7 +12110,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B310" s="3" t="n">
+      <c r="B310" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12144,7 +12145,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B311" s="3" t="n">
+      <c r="B311" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12179,7 +12180,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B312" s="3" t="n">
+      <c r="B312" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12214,7 +12215,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B313" s="3" t="n">
+      <c r="B313" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12249,7 +12250,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B314" s="3" t="n">
+      <c r="B314" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -12284,7 +12285,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B315" s="3" t="n">
+      <c r="B315" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -12319,7 +12320,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B316" s="3" t="n">
+      <c r="B316" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -12354,7 +12355,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B317" s="3" t="n">
+      <c r="B317" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -12389,7 +12390,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B318" s="3" t="n">
+      <c r="B318" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -12424,7 +12425,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B319" s="3" t="n">
+      <c r="B319" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C319" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W19-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W19-02.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -562,7 +561,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -597,7 +596,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -632,7 +631,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -667,7 +666,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -702,7 +701,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -737,7 +736,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -772,7 +771,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -807,7 +806,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -842,7 +841,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -877,7 +876,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -916,7 +915,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -975,7 +974,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1010,7 +1009,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1045,7 +1044,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1080,7 +1079,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1115,7 +1114,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1150,7 +1149,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1185,7 +1184,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1220,7 +1219,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1255,7 +1254,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1290,7 +1289,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1329,7 +1328,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1388,7 +1387,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1423,7 +1422,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1458,7 +1457,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1493,7 +1492,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1528,7 +1527,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1563,7 +1562,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1598,7 +1597,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1633,7 +1632,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1668,7 +1667,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1703,7 +1702,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1762,7 +1761,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1797,7 +1796,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1832,7 +1831,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1867,7 +1866,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1902,7 +1901,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1937,7 +1936,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1972,7 +1971,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2007,7 +2006,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2042,7 +2041,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2077,7 +2076,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2116,7 +2115,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2175,7 +2174,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2210,7 +2209,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2245,7 +2244,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2280,7 +2279,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2315,7 +2314,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2350,7 +2349,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2385,7 +2384,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2420,7 +2419,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2455,7 +2454,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2490,7 +2489,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2529,7 +2528,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2588,7 +2587,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2623,7 +2622,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2658,7 +2657,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2693,7 +2692,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2728,7 +2727,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2763,7 +2762,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2798,7 +2797,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2833,7 +2832,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2868,7 +2867,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2903,7 +2902,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2942,7 +2941,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -3001,7 +3000,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3036,7 +3035,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3071,7 +3070,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3106,7 +3105,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3141,7 +3140,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3176,7 +3175,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3211,7 +3210,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3246,7 +3245,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3281,7 +3280,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3316,7 +3315,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -3375,7 +3374,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3410,7 +3409,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3445,7 +3444,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3480,7 +3479,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3515,7 +3514,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3550,7 +3549,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3585,7 +3584,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3620,7 +3619,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3655,7 +3654,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3690,7 +3689,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3729,7 +3728,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -3788,7 +3787,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3823,7 +3822,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3858,7 +3857,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3893,7 +3892,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3928,7 +3927,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3963,7 +3962,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3998,7 +3997,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4033,7 +4032,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4068,7 +4067,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4103,7 +4102,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4162,7 +4161,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4197,7 +4196,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4232,7 +4231,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4267,7 +4266,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4302,7 +4301,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4337,7 +4336,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4372,7 +4371,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4407,7 +4406,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4442,7 +4441,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4477,7 +4476,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -4536,7 +4535,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4571,7 +4570,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4606,7 +4605,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4641,7 +4640,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4676,7 +4675,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4711,7 +4710,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4746,7 +4745,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4781,7 +4780,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4816,7 +4815,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4851,7 +4850,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -4890,7 +4889,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -4949,7 +4948,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4984,7 +4983,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5019,7 +5018,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5054,7 +5053,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5089,7 +5088,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5124,7 +5123,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5159,7 +5158,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5194,7 +5193,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5229,7 +5228,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5264,7 +5263,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -5303,7 +5302,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -5362,7 +5361,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5397,7 +5396,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5432,7 +5431,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5467,7 +5466,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5502,7 +5501,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5537,7 +5536,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5572,7 +5571,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5607,7 +5606,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5642,7 +5641,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5677,7 +5676,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -5716,7 +5715,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C140" t="inlineStr">
@@ -5775,7 +5774,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5810,7 +5809,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5845,7 +5844,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5880,7 +5879,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5915,7 +5914,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5950,7 +5949,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5985,7 +5984,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6020,7 +6019,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6055,7 +6054,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6090,7 +6089,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -6149,7 +6148,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6184,7 +6183,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>43640</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6219,7 +6218,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6254,7 +6253,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6289,7 +6288,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6324,7 +6323,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6359,7 +6358,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6394,7 +6393,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6429,7 +6428,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6464,7 +6463,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -6523,7 +6522,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6558,7 +6557,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6593,7 +6592,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6628,7 +6627,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6663,7 +6662,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6698,7 +6697,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6733,7 +6732,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6768,7 +6767,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6803,7 +6802,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6838,7 +6837,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -6877,7 +6876,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C171" t="inlineStr">
@@ -6936,7 +6935,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6971,7 +6970,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7006,7 +7005,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7041,7 +7040,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7076,7 +7075,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7111,7 +7110,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7146,7 +7145,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7181,7 +7180,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7216,7 +7215,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7251,7 +7250,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -7290,7 +7289,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -7349,7 +7348,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7384,7 +7383,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7419,7 +7418,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7454,7 +7453,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7489,7 +7488,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7524,7 +7523,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7559,7 +7558,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7594,7 +7593,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7629,7 +7628,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7664,7 +7663,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -7723,7 +7722,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7758,7 +7757,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7793,7 +7792,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7828,7 +7827,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7863,7 +7862,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7898,7 +7897,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7933,7 +7932,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7968,7 +7967,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8003,7 +8002,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8038,7 +8037,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C202" t="inlineStr">
@@ -8077,7 +8076,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -8136,7 +8135,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8171,7 +8170,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8206,7 +8205,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8241,7 +8240,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8276,7 +8275,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8311,7 +8310,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8346,7 +8345,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8381,7 +8380,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8416,7 +8415,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8451,7 +8450,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C213" t="inlineStr">
@@ -8490,7 +8489,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -8549,7 +8548,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8584,7 +8583,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8619,7 +8618,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8654,7 +8653,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8689,7 +8688,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8724,7 +8723,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8759,7 +8758,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8794,7 +8793,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8829,7 +8828,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8864,7 +8863,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -8903,7 +8902,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C225" t="inlineStr">
@@ -8962,7 +8961,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8997,7 +8996,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9032,7 +9031,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9067,7 +9066,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9102,7 +9101,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9137,7 +9136,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9172,7 +9171,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9207,7 +9206,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B233" s="4" t="n">
+      <c r="B233" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9242,7 +9241,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9277,7 +9276,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -9336,7 +9335,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9371,7 +9370,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9406,7 +9405,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9441,7 +9440,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9476,7 +9475,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9511,7 +9510,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9546,7 +9545,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B242" s="4" t="n">
+      <c r="B242" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9581,7 +9580,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9616,7 +9615,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B244" s="4" t="n">
+      <c r="B244" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9651,7 +9650,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B245" s="4" t="n">
+      <c r="B245" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C245" t="inlineStr">
@@ -9690,7 +9689,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B246" s="4" t="n">
+      <c r="B246" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C246" t="inlineStr">
@@ -9749,7 +9748,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B247" s="4" t="n">
+      <c r="B247" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9784,7 +9783,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B248" s="4" t="n">
+      <c r="B248" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9819,7 +9818,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B249" s="4" t="n">
+      <c r="B249" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9854,7 +9853,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B250" s="4" t="n">
+      <c r="B250" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9889,7 +9888,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B251" s="4" t="n">
+      <c r="B251" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9924,7 +9923,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B252" s="4" t="n">
+      <c r="B252" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9959,7 +9958,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B253" s="4" t="n">
+      <c r="B253" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -9994,7 +9993,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B254" s="4" t="n">
+      <c r="B254" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10029,7 +10028,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B255" s="4" t="n">
+      <c r="B255" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10064,7 +10063,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B256" s="4" t="n">
+      <c r="B256" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C256" t="inlineStr">
@@ -10123,7 +10122,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B257" s="4" t="n">
+      <c r="B257" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10158,7 +10157,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B258" s="4" t="n">
+      <c r="B258" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10193,7 +10192,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B259" s="4" t="n">
+      <c r="B259" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10228,7 +10227,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B260" s="4" t="n">
+      <c r="B260" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10263,7 +10262,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B261" s="4" t="n">
+      <c r="B261" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10298,7 +10297,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B262" s="4" t="n">
+      <c r="B262" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10333,7 +10332,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B263" s="4" t="n">
+      <c r="B263" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10368,7 +10367,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B264" s="4" t="n">
+      <c r="B264" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10403,7 +10402,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B265" s="4" t="n">
+      <c r="B265" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10438,7 +10437,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B266" s="4" t="n">
+      <c r="B266" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C266" t="inlineStr">
@@ -10497,7 +10496,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B267" s="4" t="n">
+      <c r="B267" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10532,7 +10531,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B268" s="4" t="n">
+      <c r="B268" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10567,7 +10566,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B269" s="4" t="n">
+      <c r="B269" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10602,7 +10601,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B270" s="4" t="n">
+      <c r="B270" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10637,7 +10636,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B271" s="4" t="n">
+      <c r="B271" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10672,7 +10671,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B272" s="4" t="n">
+      <c r="B272" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10707,7 +10706,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B273" s="4" t="n">
+      <c r="B273" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10742,7 +10741,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B274" s="4" t="n">
+      <c r="B274" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10777,7 +10776,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B275" s="4" t="n">
+      <c r="B275" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10812,7 +10811,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B276" s="4" t="n">
+      <c r="B276" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C276" t="inlineStr">
@@ -10851,7 +10850,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B277" s="4" t="n">
+      <c r="B277" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C277" t="inlineStr">
@@ -10910,7 +10909,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B278" s="4" t="n">
+      <c r="B278" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10945,7 +10944,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B279" s="4" t="n">
+      <c r="B279" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10980,7 +10979,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B280" s="4" t="n">
+      <c r="B280" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11015,7 +11014,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B281" s="4" t="n">
+      <c r="B281" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11050,7 +11049,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B282" s="4" t="n">
+      <c r="B282" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11085,7 +11084,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B283" s="4" t="n">
+      <c r="B283" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11120,7 +11119,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B284" s="4" t="n">
+      <c r="B284" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11155,7 +11154,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B285" s="4" t="n">
+      <c r="B285" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11190,7 +11189,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B286" s="4" t="n">
+      <c r="B286" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11225,7 +11224,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B287" s="4" t="n">
+      <c r="B287" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C287" t="inlineStr">
@@ -11264,7 +11263,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B288" s="4" t="n">
+      <c r="B288" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C288" t="inlineStr">
@@ -11323,7 +11322,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B289" s="4" t="n">
+      <c r="B289" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -11358,7 +11357,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B290" s="4" t="n">
+      <c r="B290" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11393,7 +11392,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B291" s="4" t="n">
+      <c r="B291" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11428,7 +11427,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B292" s="4" t="n">
+      <c r="B292" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11463,7 +11462,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B293" s="4" t="n">
+      <c r="B293" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11498,7 +11497,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B294" s="4" t="n">
+      <c r="B294" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11533,7 +11532,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B295" s="4" t="n">
+      <c r="B295" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11568,7 +11567,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B296" s="4" t="n">
+      <c r="B296" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11603,7 +11602,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B297" s="4" t="n">
+      <c r="B297" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11638,7 +11637,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B298" s="4" t="n">
+      <c r="B298" s="3" t="n">
         <v>43836</v>
       </c>
       <c r="C298" t="inlineStr">
@@ -11677,7 +11676,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B299" s="4" t="n">
+      <c r="B299" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C299" t="inlineStr">
@@ -11736,7 +11735,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B300" s="4" t="n">
+      <c r="B300" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11771,7 +11770,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B301" s="4" t="n">
+      <c r="B301" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11806,7 +11805,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B302" s="4" t="n">
+      <c r="B302" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11841,7 +11840,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B303" s="4" t="n">
+      <c r="B303" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11876,7 +11875,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B304" s="4" t="n">
+      <c r="B304" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11911,7 +11910,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B305" s="4" t="n">
+      <c r="B305" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -11946,7 +11945,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B306" s="4" t="n">
+      <c r="B306" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -11981,7 +11980,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B307" s="4" t="n">
+      <c r="B307" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -12016,7 +12015,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B308" s="4" t="n">
+      <c r="B308" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12051,7 +12050,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B309" s="4" t="n">
+      <c r="B309" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C309" t="inlineStr">
@@ -12110,7 +12109,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B310" s="4" t="n">
+      <c r="B310" s="3" t="n">
         <v>43612</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12145,7 +12144,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B311" s="4" t="n">
+      <c r="B311" s="3" t="n">
         <v>43619</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12180,7 +12179,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B312" s="4" t="n">
+      <c r="B312" s="3" t="n">
         <v>43661</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12215,7 +12214,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B313" s="4" t="n">
+      <c r="B313" s="3" t="n">
         <v>43682</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12250,7 +12249,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B314" s="4" t="n">
+      <c r="B314" s="3" t="n">
         <v>43707</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -12285,7 +12284,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B315" s="4" t="n">
+      <c r="B315" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -12320,7 +12319,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B316" s="4" t="n">
+      <c r="B316" s="3" t="n">
         <v>43766</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -12355,7 +12354,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B317" s="4" t="n">
+      <c r="B317" s="3" t="n">
         <v>43781</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -12390,7 +12389,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B318" s="4" t="n">
+      <c r="B318" s="3" t="n">
         <v>43810</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -12425,7 +12424,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B319" s="4" t="n">
+      <c r="B319" s="3" t="n">
         <v>43845</v>
       </c>
       <c r="C319" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W19-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W19-02.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -561,7 +562,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -596,7 +597,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -631,7 +632,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -666,7 +667,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -701,7 +702,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -736,7 +737,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -771,7 +772,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -806,7 +807,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -841,7 +842,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -876,7 +877,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -915,7 +916,7 @@
           <t>FAR SAC W19-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -974,7 +975,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1009,7 +1010,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1044,7 +1045,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1079,7 +1080,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1114,7 +1115,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1149,7 +1150,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1184,7 +1185,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1219,7 +1220,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1254,7 +1255,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1289,7 +1290,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1328,7 +1329,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1387,7 +1388,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1422,7 +1423,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1457,7 +1458,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1492,7 +1493,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1527,7 +1528,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1562,7 +1563,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1597,7 +1598,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1632,7 +1633,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1667,7 +1668,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1702,7 +1703,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1761,7 +1762,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1796,7 +1797,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1831,7 +1832,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1866,7 +1867,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1901,7 +1902,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1936,7 +1937,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1971,7 +1972,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2006,7 +2007,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2041,7 +2042,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2076,7 +2077,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2115,7 +2116,7 @@
           <t>FAR SAC W19-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2174,7 +2175,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2209,7 +2210,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2244,7 +2245,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2279,7 +2280,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2314,7 +2315,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2349,7 +2350,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2384,7 +2385,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2419,7 +2420,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2454,7 +2455,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2489,7 +2490,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2528,7 +2529,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2587,7 +2588,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2622,7 +2623,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2657,7 +2658,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2692,7 +2693,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2727,7 +2728,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2762,7 +2763,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2797,7 +2798,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2832,7 +2833,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2867,7 +2868,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2902,7 +2903,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2941,7 +2942,7 @@
           <t>FAR SAC W19-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -3000,7 +3001,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3035,7 +3036,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3070,7 +3071,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3105,7 +3106,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3140,7 +3141,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3175,7 +3176,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3210,7 +3211,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3245,7 +3246,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3280,7 +3281,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3315,7 +3316,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -3374,7 +3375,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3409,7 +3410,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3444,7 +3445,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3479,7 +3480,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3514,7 +3515,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3549,7 +3550,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3584,7 +3585,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3619,7 +3620,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3654,7 +3655,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3689,7 +3690,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3728,7 +3729,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -3787,7 +3788,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3822,7 +3823,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3857,7 +3858,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3892,7 +3893,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3927,7 +3928,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3962,7 +3963,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3997,7 +3998,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4032,7 +4033,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4067,7 +4068,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4102,7 +4103,7 @@
           <t>FAR SAC W19-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4161,7 +4162,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4196,7 +4197,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4231,7 +4232,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4266,7 +4267,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4301,7 +4302,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4336,7 +4337,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4371,7 +4372,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4406,7 +4407,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4441,7 +4442,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4476,7 +4477,7 @@
           <t>FAR SAC W19-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -4535,7 +4536,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4570,7 +4571,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4605,7 +4606,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4640,7 +4641,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4675,7 +4676,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4710,7 +4711,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4745,7 +4746,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4780,7 +4781,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4815,7 +4816,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4850,7 +4851,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -4889,7 +4890,7 @@
           <t>FAR SAC W19-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -4948,7 +4949,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4983,7 +4984,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5018,7 +5019,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5053,7 +5054,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5088,7 +5089,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5123,7 +5124,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5158,7 +5159,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5193,7 +5194,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5228,7 +5229,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5263,7 +5264,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -5302,7 +5303,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -5361,7 +5362,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5396,7 +5397,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5431,7 +5432,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5466,7 +5467,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5501,7 +5502,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5536,7 +5537,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5571,7 +5572,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5606,7 +5607,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5641,7 +5642,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5676,7 +5677,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -5715,7 +5716,7 @@
           <t>FAR SAC W19-02FungicideNoneCvTabasco</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C140" t="inlineStr">
@@ -5774,7 +5775,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5809,7 +5810,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5844,7 +5845,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5879,7 +5880,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5914,7 +5915,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5949,7 +5950,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5984,7 +5985,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6019,7 +6020,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6054,7 +6055,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6089,7 +6090,7 @@
           <t>FAR SAC W19-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -6148,7 +6149,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6183,7 +6184,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43640</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6218,7 +6219,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6253,7 +6254,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6288,7 +6289,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6323,7 +6324,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6358,7 +6359,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6393,7 +6394,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6428,7 +6429,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6463,7 +6464,7 @@
           <t>FAR SAC W19-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -6522,7 +6523,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6557,7 +6558,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6592,7 +6593,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6627,7 +6628,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6662,7 +6663,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6697,7 +6698,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6732,7 +6733,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6767,7 +6768,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6802,7 +6803,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6837,7 +6838,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C170" t="inlineStr">
@@ -6876,7 +6877,7 @@
           <t>FAR SAC W19-02FungicideFullCvManning</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C171" t="inlineStr">
@@ -6935,7 +6936,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6970,7 +6971,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7005,7 +7006,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7040,7 +7041,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7075,7 +7076,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7110,7 +7111,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7145,7 +7146,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7180,7 +7181,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7215,7 +7216,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7250,7 +7251,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -7289,7 +7290,7 @@
           <t>FAR SAC W19-02FungicideFullCvRevenue</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -7348,7 +7349,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7383,7 +7384,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7418,7 +7419,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7453,7 +7454,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7488,7 +7489,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7523,7 +7524,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7558,7 +7559,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7593,7 +7594,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7628,7 +7629,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7663,7 +7664,7 @@
           <t>FAR SAC W19-02FungicideFullCvBeaufort</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -7722,7 +7723,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7757,7 +7758,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7792,7 +7793,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7827,7 +7828,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7862,7 +7863,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7897,7 +7898,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7932,7 +7933,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7967,7 +7968,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8002,7 +8003,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8037,7 +8038,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C202" t="inlineStr">
@@ -8076,7 +8077,7 @@
           <t>FAR SAC W19-02FungicideFullCvCalabro</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C203" t="inlineStr">
@@ -8135,7 +8136,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8170,7 +8171,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8205,7 +8206,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8240,7 +8241,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8275,7 +8276,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8310,7 +8311,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8345,7 +8346,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8380,7 +8381,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8415,7 +8416,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8450,7 +8451,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C213" t="inlineStr">
@@ -8489,7 +8490,7 @@
           <t>FAR SAC W19-02FungicideFullCvAccroc</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -8548,7 +8549,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8583,7 +8584,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8618,7 +8619,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8653,7 +8654,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8688,7 +8689,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8723,7 +8724,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8758,7 +8759,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8793,7 +8794,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8828,7 +8829,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8863,7 +8864,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -8902,7 +8903,7 @@
           <t>FAR SAC W19-02FungicideFullCvRelay</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C225" t="inlineStr">
@@ -8961,7 +8962,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8996,7 +8997,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9031,7 +9032,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9066,7 +9067,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9101,7 +9102,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9136,7 +9137,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9171,7 +9172,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9206,7 +9207,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9241,7 +9242,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9276,7 +9277,7 @@
           <t>FAR SAC W19-02FungicideFullCvAdagio</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -9335,7 +9336,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9370,7 +9371,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9405,7 +9406,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9440,7 +9441,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9475,7 +9476,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9510,7 +9511,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9545,7 +9546,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9580,7 +9581,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9615,7 +9616,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9650,7 +9651,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C245" t="inlineStr">
@@ -9689,7 +9690,7 @@
           <t>FAR SAC W19-02FungicideFullCvAnapurna</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C246" t="inlineStr">
@@ -9748,7 +9749,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9783,7 +9784,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9818,7 +9819,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9853,7 +9854,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9888,7 +9889,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9923,7 +9924,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9958,7 +9959,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -9993,7 +9994,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10028,7 +10029,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10063,7 +10064,7 @@
           <t>FAR SAC W19-02FungicideFullCvAsano</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C256" t="inlineStr">
@@ -10122,7 +10123,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10157,7 +10158,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10192,7 +10193,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10227,7 +10228,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10262,7 +10263,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10297,7 +10298,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10332,7 +10333,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10367,7 +10368,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10402,7 +10403,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10437,7 +10438,7 @@
           <t>FAR SAC W19-02FungicideFullCvHereford</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C266" t="inlineStr">
@@ -10496,7 +10497,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10531,7 +10532,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10566,7 +10567,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10601,7 +10602,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10636,7 +10637,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10671,7 +10672,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10706,7 +10707,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10741,7 +10742,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10776,7 +10777,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10811,7 +10812,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C276" t="inlineStr">
@@ -10850,7 +10851,7 @@
           <t>FAR SAC W19-02FungicideFullCvBennett</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C277" t="inlineStr">
@@ -10909,7 +10910,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10944,7 +10945,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10979,7 +10980,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11014,7 +11015,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11049,7 +11050,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11084,7 +11085,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11119,7 +11120,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11154,7 +11155,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11189,7 +11190,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11224,7 +11225,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C287" t="inlineStr">
@@ -11263,7 +11264,7 @@
           <t>FAR SAC W19-02FungicideFullCvTrojan</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C288" t="inlineStr">
@@ -11322,7 +11323,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -11357,7 +11358,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11392,7 +11393,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11427,7 +11428,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11462,7 +11463,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11497,7 +11498,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11532,7 +11533,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11567,7 +11568,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11602,7 +11603,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11637,7 +11638,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>43836</v>
       </c>
       <c r="C298" t="inlineStr">
@@ -11676,7 +11677,7 @@
           <t>FAR SAC W19-02FungicideFullCvTabasco</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C299" t="inlineStr">
@@ -11735,7 +11736,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11770,7 +11771,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11805,7 +11806,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11840,7 +11841,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11875,7 +11876,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11910,7 +11911,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -11945,7 +11946,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -11980,7 +11981,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -12015,7 +12016,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B308" s="3" t="n">
+      <c r="B308" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12050,7 +12051,7 @@
           <t>FAR SAC W19-02FungicideFullCvEinstein</t>
         </is>
       </c>
-      <c r="B309" s="3" t="n">
+      <c r="B309" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C309" t="inlineStr">
@@ -12109,7 +12110,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B310" s="3" t="n">
+      <c r="B310" s="4" t="n">
         <v>43612</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12144,7 +12145,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B311" s="3" t="n">
+      <c r="B311" s="4" t="n">
         <v>43619</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12179,7 +12180,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B312" s="3" t="n">
+      <c r="B312" s="4" t="n">
         <v>43661</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12214,7 +12215,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B313" s="3" t="n">
+      <c r="B313" s="4" t="n">
         <v>43682</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12249,7 +12250,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B314" s="3" t="n">
+      <c r="B314" s="4" t="n">
         <v>43707</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -12284,7 +12285,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B315" s="3" t="n">
+      <c r="B315" s="4" t="n">
         <v>43738</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -12319,7 +12320,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B316" s="3" t="n">
+      <c r="B316" s="4" t="n">
         <v>43766</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -12354,7 +12355,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B317" s="3" t="n">
+      <c r="B317" s="4" t="n">
         <v>43781</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -12389,7 +12390,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B318" s="3" t="n">
+      <c r="B318" s="4" t="n">
         <v>43810</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -12424,7 +12425,7 @@
           <t>FAR SAC W19-02FungicideFullCvKittyhawk</t>
         </is>
       </c>
-      <c r="B319" s="3" t="n">
+      <c r="B319" s="4" t="n">
         <v>43845</v>
       </c>
       <c r="C319" t="inlineStr">
